--- a/DOKUMENT/pengujian public.xlsx
+++ b/DOKUMENT/pengujian public.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BFE1E5-4ECE-45A9-8617-40CC871F005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A687032-6496-464D-8145-98CAC77601EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -515,6 +515,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,12 +573,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1742,9 +1743,9 @@
   </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1772,49 +1773,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1832,13 +1833,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
       </c>
       <c r="G2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3">
         <v>4</v>
@@ -1856,11 +1857,11 @@
         <v>4</v>
       </c>
       <c r="M2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" s="4">
         <f>SUM(C2:M2)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O2" s="4">
         <v>44</v>
@@ -1931,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
         <v>4</v>
@@ -1946,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4" s="3">
         <v>4</v>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O4" s="4">
         <v>44</v>
@@ -1979,13 +1980,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -2000,11 +2001,11 @@
         <v>4</v>
       </c>
       <c r="M5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O5" s="4">
         <v>44</v>
@@ -2021,13 +2022,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>4</v>
@@ -2048,11 +2049,11 @@
         <v>4</v>
       </c>
       <c r="M6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O6" s="4">
         <v>44</v>
@@ -2123,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>4</v>
@@ -2141,14 +2142,14 @@
         <v>4</v>
       </c>
       <c r="L8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>4</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O8" s="4">
         <v>44</v>
@@ -2165,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
@@ -2189,14 +2190,14 @@
         <v>4</v>
       </c>
       <c r="L9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="3">
         <v>4</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O9" s="4">
         <v>44</v>
@@ -2318,13 +2319,13 @@
         <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
         <v>4</v>
@@ -2336,11 +2337,11 @@
         <v>4</v>
       </c>
       <c r="M12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O12" s="4">
         <v>44</v>
@@ -2456,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <v>4</v>
@@ -2468,7 +2469,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <v>4</v>
@@ -2480,11 +2481,11 @@
         <v>4</v>
       </c>
       <c r="M15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O15" s="4">
         <v>44</v>
@@ -2552,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>4</v>
@@ -2576,11 +2577,11 @@
         <v>4</v>
       </c>
       <c r="M17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O17" s="4">
         <v>44</v>
@@ -2606,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3">
         <v>4</v>
@@ -2618,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" s="3">
         <v>4</v>
@@ -2628,7 +2629,7 @@
       </c>
       <c r="N18" s="4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O18" s="4">
         <v>44</v>
@@ -3130,7 +3131,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4">
         <f>SUM(N2:N28)</f>
-        <v>1127</v>
+        <v>1102</v>
       </c>
       <c r="O29" s="4">
         <f>SUM(O2:O28)</f>
@@ -3215,7 +3216,7 @@
       </c>
       <c r="D36" s="9">
         <f>(N2/C36)*100</f>
-        <v>100</v>
+        <v>93.181818181818173</v>
       </c>
       <c r="E36" s="9" t="str">
         <f>IF(AND(D36&gt;0,D36&lt;=20),"STL",IF(AND(D36&gt;20,D36&lt;=40),"TL",IF(AND(D36&gt;40,D36&lt;=60),"C",IF(AND(D36&gt;60,D36&lt;=80),"L",IF(AND(D36&gt;80,D36&lt;=100),"SL","")))))</f>
@@ -3233,7 +3234,7 @@
         <v>86.36363636363636</v>
       </c>
       <c r="J36" s="9" t="str">
-        <f t="shared" ref="J36:J48" si="2">IF(AND(I36&gt;0,I36&lt;=20),"STL",IF(AND(I36&gt;20,I36&lt;=40),"TL",IF(AND(I36&gt;40,I36&lt;=60),"C",IF(AND(I36&gt;60,I36&lt;=80),"L",IF(AND(I36&gt;80,I36&lt;=100),"SL","")))))</f>
+        <f>IF(AND(I36&gt;0,I36&lt;=20),"STL",IF(AND(I36&gt;20,I36&lt;=40),"TL",IF(AND(I36&gt;40,I36&lt;=60),"C",IF(AND(I36&gt;60,I36&lt;=80),"L",IF(AND(I36&gt;80,I36&lt;=100),"SL","")))))</f>
         <v>SL</v>
       </c>
     </row>
@@ -3248,11 +3249,11 @@
         <v>44</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" ref="D37:D47" si="3">(N3/C37)*100</f>
+        <f t="shared" ref="D37:D47" si="2">(N3/C37)*100</f>
         <v>86.36363636363636</v>
       </c>
       <c r="E37" s="9" t="str">
-        <f t="shared" ref="E37:E47" si="4">IF(AND(D37&gt;0,D37&lt;=20),"STL",IF(AND(D37&gt;20,D37&lt;=40),"TL",IF(AND(D37&gt;40,D37&lt;=60),"C",IF(AND(D37&gt;60,D37&lt;=80),"L",IF(AND(D37&gt;80,D37&lt;=100),"SL","")))))</f>
+        <f t="shared" ref="E37:E47" si="3">IF(AND(D37&gt;0,D37&lt;=20),"STL",IF(AND(D37&gt;20,D37&lt;=40),"TL",IF(AND(D37&gt;40,D37&lt;=60),"C",IF(AND(D37&gt;60,D37&lt;=80),"L",IF(AND(D37&gt;80,D37&lt;=100),"SL","")))))</f>
         <v>SL</v>
       </c>
       <c r="F37" s="9"/>
@@ -3264,10 +3265,10 @@
       </c>
       <c r="I37" s="9">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>95.454545454545453</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J36:J48" si="4">IF(AND(I37&gt;0,I37&lt;=20),"STL",IF(AND(I37&gt;20,I37&lt;=40),"TL",IF(AND(I37&gt;40,I37&lt;=60),"C",IF(AND(I37&gt;60,I37&lt;=80),"L",IF(AND(I37&gt;80,I37&lt;=100),"SL","")))))</f>
         <v>SL</v>
       </c>
     </row>
@@ -3282,11 +3283,11 @@
         <v>44</v>
       </c>
       <c r="D38" s="9">
+        <f t="shared" si="2"/>
+        <v>95.454545454545453</v>
+      </c>
+      <c r="E38" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E38" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F38" s="9"/>
@@ -3298,10 +3299,10 @@
       </c>
       <c r="I38" s="9">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>95.454545454545453</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3314,11 +3315,11 @@
         <v>44</v>
       </c>
       <c r="D39" s="9">
+        <f t="shared" si="2"/>
+        <v>93.181818181818173</v>
+      </c>
+      <c r="E39" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E39" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F39" s="9"/>
@@ -3333,7 +3334,7 @@
         <v>93.181818181818173</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3348,11 +3349,11 @@
         <v>44</v>
       </c>
       <c r="D40" s="9">
+        <f t="shared" si="2"/>
+        <v>93.181818181818173</v>
+      </c>
+      <c r="E40" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E40" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F40" s="9"/>
@@ -3367,7 +3368,7 @@
         <v>95.454545454545453</v>
       </c>
       <c r="J40" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3382,11 +3383,11 @@
         <v>44</v>
       </c>
       <c r="D41" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E41" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E41" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F41" s="9"/>
@@ -3401,7 +3402,7 @@
         <v>93.181818181818173</v>
       </c>
       <c r="J41" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3416,11 +3417,11 @@
         <v>44</v>
       </c>
       <c r="D42" s="9">
+        <f t="shared" si="2"/>
+        <v>95.454545454545453</v>
+      </c>
+      <c r="E42" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E42" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F42" s="9"/>
@@ -3435,7 +3436,7 @@
         <v>93.181818181818173</v>
       </c>
       <c r="J42" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3450,11 +3451,11 @@
         <v>44</v>
       </c>
       <c r="D43" s="9">
+        <f t="shared" si="2"/>
+        <v>95.454545454545453</v>
+      </c>
+      <c r="E43" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E43" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F43" s="9"/>
@@ -3469,7 +3470,7 @@
         <v>93.181818181818173</v>
       </c>
       <c r="J43" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3484,11 +3485,11 @@
         <v>44</v>
       </c>
       <c r="D44" s="9">
+        <f t="shared" si="2"/>
+        <v>88.63636363636364</v>
+      </c>
+      <c r="E44" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>88.63636363636364</v>
-      </c>
-      <c r="E44" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F44" s="9"/>
@@ -3503,7 +3504,7 @@
         <v>88.63636363636364</v>
       </c>
       <c r="J44" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3516,11 +3517,11 @@
         <v>44</v>
       </c>
       <c r="D45" s="9">
+        <f t="shared" si="2"/>
+        <v>97.727272727272734</v>
+      </c>
+      <c r="E45" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>97.727272727272734</v>
-      </c>
-      <c r="E45" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F45" s="9"/>
@@ -3535,7 +3536,7 @@
         <v>88.63636363636364</v>
       </c>
       <c r="J45" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3548,11 +3549,11 @@
         <v>44</v>
       </c>
       <c r="D46" s="9">
+        <f t="shared" si="2"/>
+        <v>93.181818181818173</v>
+      </c>
+      <c r="E46" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="E46" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F46" s="9"/>
@@ -3567,7 +3568,7 @@
         <v>93.181818181818173</v>
       </c>
       <c r="J46" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3580,11 +3581,11 @@
         <v>44</v>
       </c>
       <c r="D47" s="9">
+        <f t="shared" si="2"/>
+        <v>88.63636363636364</v>
+      </c>
+      <c r="E47" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>88.63636363636364</v>
-      </c>
-      <c r="E47" s="9" t="str">
-        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
       <c r="F47" s="9"/>
@@ -3599,7 +3600,7 @@
         <v>93.181818181818173</v>
       </c>
       <c r="J47" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3631,7 +3632,7 @@
         <v>90.909090909090907</v>
       </c>
       <c r="J48" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>SL</v>
       </c>
     </row>
@@ -3645,7 +3646,7 @@
       </c>
       <c r="D49" s="9">
         <f>(N15/C49)*100</f>
-        <v>100</v>
+        <v>93.181818181818173</v>
       </c>
       <c r="E49" s="9" t="str">
         <f>IF(AND(D49&gt;0,D49&lt;=20),"STL",IF(AND(D49&gt;20,D49&lt;=40),"TL",IF(AND(D49&gt;40,D49&lt;=60),"C",IF(AND(D49&gt;60,D49&lt;=80),"L",IF(AND(D49&gt;80,D49&lt;=100),"SL","")))))</f>
@@ -3659,35 +3660,35 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="21">
+      <c r="C50" s="20"/>
+      <c r="D50" s="23">
         <f>AVERAGE(D36:D49,I36:I48)</f>
-        <v>94.865319865319847</v>
-      </c>
-      <c r="E50" s="21" t="str">
+        <v>92.760942760942754</v>
+      </c>
+      <c r="E50" s="23" t="str">
         <f>IF(AND(D50&gt;0,D50&lt;=20),"STL",IF(AND(D50&gt;20,D50&lt;=40),"TL",IF(AND(D50&gt;40,D50&lt;=60),"C",IF(AND(D50&gt;60,D50&lt;=80),"L",IF(AND(D50&gt;80,D50&lt;=100),"SL","")))))</f>
         <v>SL</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3705,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307979F6-DA14-4878-9500-8C5DEA3D5059}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3733,47 +3734,47 @@
     <col min="20" max="20" width="74.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="2"/>
@@ -3784,48 +3785,48 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="26">
-        <v>4</v>
-      </c>
-      <c r="D2" s="26">
-        <v>4</v>
-      </c>
-      <c r="E2" s="26">
-        <v>4</v>
-      </c>
-      <c r="F2" s="26">
-        <v>4</v>
-      </c>
-      <c r="G2" s="26">
-        <v>4</v>
-      </c>
-      <c r="H2" s="26">
-        <v>4</v>
-      </c>
-      <c r="I2" s="26">
-        <v>4</v>
-      </c>
-      <c r="J2" s="26">
-        <v>4</v>
-      </c>
-      <c r="K2" s="26">
-        <v>4</v>
-      </c>
-      <c r="L2" s="26">
-        <v>4</v>
-      </c>
-      <c r="M2" s="26">
-        <v>4</v>
-      </c>
-      <c r="N2" s="27">
+      <c r="B2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="28">
+        <v>4</v>
+      </c>
+      <c r="D2" s="28">
+        <v>4</v>
+      </c>
+      <c r="E2" s="28">
+        <v>3</v>
+      </c>
+      <c r="F2" s="28">
+        <v>4</v>
+      </c>
+      <c r="G2" s="28">
+        <v>3</v>
+      </c>
+      <c r="H2" s="28">
+        <v>4</v>
+      </c>
+      <c r="I2" s="28">
+        <v>4</v>
+      </c>
+      <c r="J2" s="28">
+        <v>4</v>
+      </c>
+      <c r="K2" s="28">
+        <v>4</v>
+      </c>
+      <c r="L2" s="28">
+        <v>4</v>
+      </c>
+      <c r="M2" s="28">
+        <v>3</v>
+      </c>
+      <c r="N2" s="29">
         <f>SUM(C2:M2)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3835,46 +3836,46 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="26">
-        <v>4</v>
-      </c>
-      <c r="D3" s="26">
-        <v>3</v>
-      </c>
-      <c r="E3" s="26">
-        <v>4</v>
-      </c>
-      <c r="F3" s="26">
-        <v>4</v>
-      </c>
-      <c r="G3" s="26">
-        <v>3</v>
-      </c>
-      <c r="H3" s="26">
-        <v>3</v>
-      </c>
-      <c r="I3" s="26">
-        <v>3</v>
-      </c>
-      <c r="J3" s="26">
-        <v>4</v>
-      </c>
-      <c r="K3" s="26">
-        <v>4</v>
-      </c>
-      <c r="L3" s="26">
-        <v>3</v>
-      </c>
-      <c r="M3" s="26">
-        <v>3</v>
-      </c>
-      <c r="N3" s="27">
+      <c r="C3" s="28">
+        <v>4</v>
+      </c>
+      <c r="D3" s="28">
+        <v>3</v>
+      </c>
+      <c r="E3" s="28">
+        <v>4</v>
+      </c>
+      <c r="F3" s="28">
+        <v>4</v>
+      </c>
+      <c r="G3" s="28">
+        <v>3</v>
+      </c>
+      <c r="H3" s="28">
+        <v>3</v>
+      </c>
+      <c r="I3" s="28">
+        <v>3</v>
+      </c>
+      <c r="J3" s="28">
+        <v>4</v>
+      </c>
+      <c r="K3" s="28">
+        <v>4</v>
+      </c>
+      <c r="L3" s="28">
+        <v>3</v>
+      </c>
+      <c r="M3" s="28">
+        <v>3</v>
+      </c>
+      <c r="N3" s="29">
         <f t="shared" ref="N3:N28" si="0">SUM(C3:M3)</f>
         <v>38</v>
       </c>
@@ -3886,48 +3887,48 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="26">
-        <v>4</v>
-      </c>
-      <c r="D4" s="26">
-        <v>4</v>
-      </c>
-      <c r="E4" s="26">
-        <v>4</v>
-      </c>
-      <c r="F4" s="26">
-        <v>4</v>
-      </c>
-      <c r="G4" s="26">
-        <v>4</v>
-      </c>
-      <c r="H4" s="26">
-        <v>4</v>
-      </c>
-      <c r="I4" s="26">
-        <v>4</v>
-      </c>
-      <c r="J4" s="26">
-        <v>4</v>
-      </c>
-      <c r="K4" s="26">
-        <v>4</v>
-      </c>
-      <c r="L4" s="26">
-        <v>4</v>
-      </c>
-      <c r="M4" s="26">
-        <v>4</v>
-      </c>
-      <c r="N4" s="27">
+      <c r="B4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="28">
+        <v>4</v>
+      </c>
+      <c r="D4" s="28">
+        <v>4</v>
+      </c>
+      <c r="E4" s="28">
+        <v>4</v>
+      </c>
+      <c r="F4" s="28">
+        <v>3</v>
+      </c>
+      <c r="G4" s="28">
+        <v>4</v>
+      </c>
+      <c r="H4" s="28">
+        <v>4</v>
+      </c>
+      <c r="I4" s="28">
+        <v>4</v>
+      </c>
+      <c r="J4" s="28">
+        <v>4</v>
+      </c>
+      <c r="K4" s="28">
+        <v>3</v>
+      </c>
+      <c r="L4" s="28">
+        <v>4</v>
+      </c>
+      <c r="M4" s="28">
+        <v>4</v>
+      </c>
+      <c r="N4" s="29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -3937,48 +3938,48 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="26">
-        <v>4</v>
-      </c>
-      <c r="D5" s="26">
-        <v>4</v>
-      </c>
-      <c r="E5" s="26">
-        <v>4</v>
-      </c>
-      <c r="F5" s="26">
-        <v>4</v>
-      </c>
-      <c r="G5" s="26">
-        <v>4</v>
-      </c>
-      <c r="H5" s="26">
-        <v>4</v>
-      </c>
-      <c r="I5" s="26">
-        <v>4</v>
-      </c>
-      <c r="J5" s="26">
-        <v>4</v>
-      </c>
-      <c r="K5" s="26">
-        <v>4</v>
-      </c>
-      <c r="L5" s="26">
-        <v>4</v>
-      </c>
-      <c r="M5" s="26">
-        <v>4</v>
-      </c>
-      <c r="N5" s="27">
+      <c r="B5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28">
+        <v>4</v>
+      </c>
+      <c r="E5" s="28">
+        <v>4</v>
+      </c>
+      <c r="F5" s="28">
+        <v>3</v>
+      </c>
+      <c r="G5" s="28">
+        <v>4</v>
+      </c>
+      <c r="H5" s="28">
+        <v>3</v>
+      </c>
+      <c r="I5" s="28">
+        <v>4</v>
+      </c>
+      <c r="J5" s="28">
+        <v>4</v>
+      </c>
+      <c r="K5" s="28">
+        <v>4</v>
+      </c>
+      <c r="L5" s="28">
+        <v>4</v>
+      </c>
+      <c r="M5" s="28">
+        <v>3</v>
+      </c>
+      <c r="N5" s="29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -3988,48 +3989,48 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="26">
-        <v>4</v>
-      </c>
-      <c r="D6" s="26">
-        <v>4</v>
-      </c>
-      <c r="E6" s="26">
-        <v>4</v>
-      </c>
-      <c r="F6" s="26">
-        <v>4</v>
-      </c>
-      <c r="G6" s="26">
-        <v>4</v>
-      </c>
-      <c r="H6" s="26">
-        <v>4</v>
-      </c>
-      <c r="I6" s="26">
-        <v>4</v>
-      </c>
-      <c r="J6" s="26">
-        <v>4</v>
-      </c>
-      <c r="K6" s="26">
-        <v>4</v>
-      </c>
-      <c r="L6" s="26">
-        <v>4</v>
-      </c>
-      <c r="M6" s="26">
-        <v>4</v>
-      </c>
-      <c r="N6" s="27">
+      <c r="B6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28">
+        <v>4</v>
+      </c>
+      <c r="D6" s="28">
+        <v>3</v>
+      </c>
+      <c r="E6" s="28">
+        <v>4</v>
+      </c>
+      <c r="F6" s="28">
+        <v>3</v>
+      </c>
+      <c r="G6" s="28">
+        <v>4</v>
+      </c>
+      <c r="H6" s="28">
+        <v>4</v>
+      </c>
+      <c r="I6" s="28">
+        <v>4</v>
+      </c>
+      <c r="J6" s="28">
+        <v>4</v>
+      </c>
+      <c r="K6" s="28">
+        <v>4</v>
+      </c>
+      <c r="L6" s="28">
+        <v>4</v>
+      </c>
+      <c r="M6" s="28">
+        <v>3</v>
+      </c>
+      <c r="N6" s="29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -4039,46 +4040,46 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="26">
-        <v>4</v>
-      </c>
-      <c r="D7" s="26">
-        <v>4</v>
-      </c>
-      <c r="E7" s="26">
-        <v>4</v>
-      </c>
-      <c r="F7" s="26">
-        <v>4</v>
-      </c>
-      <c r="G7" s="26">
-        <v>4</v>
-      </c>
-      <c r="H7" s="26">
-        <v>4</v>
-      </c>
-      <c r="I7" s="26">
-        <v>4</v>
-      </c>
-      <c r="J7" s="26">
-        <v>4</v>
-      </c>
-      <c r="K7" s="26">
-        <v>4</v>
-      </c>
-      <c r="L7" s="26">
-        <v>4</v>
-      </c>
-      <c r="M7" s="26">
-        <v>4</v>
-      </c>
-      <c r="N7" s="27">
+      <c r="C7" s="28">
+        <v>4</v>
+      </c>
+      <c r="D7" s="28">
+        <v>4</v>
+      </c>
+      <c r="E7" s="28">
+        <v>4</v>
+      </c>
+      <c r="F7" s="28">
+        <v>4</v>
+      </c>
+      <c r="G7" s="28">
+        <v>4</v>
+      </c>
+      <c r="H7" s="28">
+        <v>4</v>
+      </c>
+      <c r="I7" s="28">
+        <v>4</v>
+      </c>
+      <c r="J7" s="28">
+        <v>4</v>
+      </c>
+      <c r="K7" s="28">
+        <v>4</v>
+      </c>
+      <c r="L7" s="28">
+        <v>4</v>
+      </c>
+      <c r="M7" s="28">
+        <v>4</v>
+      </c>
+      <c r="N7" s="29">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -4090,48 +4091,48 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="26">
-        <v>4</v>
-      </c>
-      <c r="D8" s="26">
-        <v>4</v>
-      </c>
-      <c r="E8" s="26">
-        <v>4</v>
-      </c>
-      <c r="F8" s="26">
-        <v>4</v>
-      </c>
-      <c r="G8" s="26">
-        <v>4</v>
-      </c>
-      <c r="H8" s="26">
-        <v>4</v>
-      </c>
-      <c r="I8" s="26">
-        <v>4</v>
-      </c>
-      <c r="J8" s="26">
-        <v>4</v>
-      </c>
-      <c r="K8" s="26">
-        <v>4</v>
-      </c>
-      <c r="L8" s="26">
-        <v>4</v>
-      </c>
-      <c r="M8" s="26">
-        <v>4</v>
-      </c>
-      <c r="N8" s="27">
+      <c r="C8" s="28">
+        <v>4</v>
+      </c>
+      <c r="D8" s="28">
+        <v>4</v>
+      </c>
+      <c r="E8" s="28">
+        <v>4</v>
+      </c>
+      <c r="F8" s="28">
+        <v>3</v>
+      </c>
+      <c r="G8" s="28">
+        <v>4</v>
+      </c>
+      <c r="H8" s="28">
+        <v>4</v>
+      </c>
+      <c r="I8" s="28">
+        <v>4</v>
+      </c>
+      <c r="J8" s="28">
+        <v>4</v>
+      </c>
+      <c r="K8" s="28">
+        <v>4</v>
+      </c>
+      <c r="L8" s="28">
+        <v>3</v>
+      </c>
+      <c r="M8" s="28">
+        <v>4</v>
+      </c>
+      <c r="N8" s="29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -4141,48 +4142,48 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="26">
-        <v>4</v>
-      </c>
-      <c r="D9" s="26">
-        <v>4</v>
-      </c>
-      <c r="E9" s="26">
-        <v>4</v>
-      </c>
-      <c r="F9" s="26">
-        <v>4</v>
-      </c>
-      <c r="G9" s="26">
-        <v>4</v>
-      </c>
-      <c r="H9" s="26">
-        <v>4</v>
-      </c>
-      <c r="I9" s="26">
-        <v>4</v>
-      </c>
-      <c r="J9" s="26">
-        <v>4</v>
-      </c>
-      <c r="K9" s="26">
-        <v>4</v>
-      </c>
-      <c r="L9" s="26">
-        <v>4</v>
-      </c>
-      <c r="M9" s="26">
-        <v>4</v>
-      </c>
-      <c r="N9" s="27">
+      <c r="C9" s="28">
+        <v>4</v>
+      </c>
+      <c r="D9" s="28">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28">
+        <v>4</v>
+      </c>
+      <c r="F9" s="28">
+        <v>4</v>
+      </c>
+      <c r="G9" s="28">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28">
+        <v>4</v>
+      </c>
+      <c r="I9" s="28">
+        <v>4</v>
+      </c>
+      <c r="J9" s="28">
+        <v>4</v>
+      </c>
+      <c r="K9" s="28">
+        <v>4</v>
+      </c>
+      <c r="L9" s="28">
+        <v>3</v>
+      </c>
+      <c r="M9" s="28">
+        <v>4</v>
+      </c>
+      <c r="N9" s="29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -4192,46 +4193,46 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="26">
-        <v>4</v>
-      </c>
-      <c r="D10" s="26">
-        <v>3</v>
-      </c>
-      <c r="E10" s="26">
-        <v>3</v>
-      </c>
-      <c r="F10" s="26">
-        <v>4</v>
-      </c>
-      <c r="G10" s="26">
-        <v>4</v>
-      </c>
-      <c r="H10" s="26">
-        <v>4</v>
-      </c>
-      <c r="I10" s="26">
-        <v>4</v>
-      </c>
-      <c r="J10" s="26">
-        <v>3</v>
-      </c>
-      <c r="K10" s="26">
-        <v>3</v>
-      </c>
-      <c r="L10" s="26">
-        <v>3</v>
-      </c>
-      <c r="M10" s="26">
-        <v>4</v>
-      </c>
-      <c r="N10" s="27">
+      <c r="B10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="28">
+        <v>4</v>
+      </c>
+      <c r="D10" s="28">
+        <v>3</v>
+      </c>
+      <c r="E10" s="28">
+        <v>3</v>
+      </c>
+      <c r="F10" s="28">
+        <v>4</v>
+      </c>
+      <c r="G10" s="28">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28">
+        <v>4</v>
+      </c>
+      <c r="I10" s="28">
+        <v>4</v>
+      </c>
+      <c r="J10" s="28">
+        <v>3</v>
+      </c>
+      <c r="K10" s="28">
+        <v>3</v>
+      </c>
+      <c r="L10" s="28">
+        <v>3</v>
+      </c>
+      <c r="M10" s="28">
+        <v>4</v>
+      </c>
+      <c r="N10" s="29">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -4243,46 +4244,46 @@
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26">
-        <v>4</v>
-      </c>
-      <c r="D11" s="26">
-        <v>4</v>
-      </c>
-      <c r="E11" s="26">
-        <v>4</v>
-      </c>
-      <c r="F11" s="26">
-        <v>3</v>
-      </c>
-      <c r="G11" s="26">
-        <v>4</v>
-      </c>
-      <c r="H11" s="26">
-        <v>4</v>
-      </c>
-      <c r="I11" s="26">
-        <v>4</v>
-      </c>
-      <c r="J11" s="26">
-        <v>4</v>
-      </c>
-      <c r="K11" s="26">
-        <v>4</v>
-      </c>
-      <c r="L11" s="26">
-        <v>4</v>
-      </c>
-      <c r="M11" s="26">
-        <v>4</v>
-      </c>
-      <c r="N11" s="27">
+      <c r="C11" s="28">
+        <v>4</v>
+      </c>
+      <c r="D11" s="28">
+        <v>4</v>
+      </c>
+      <c r="E11" s="28">
+        <v>4</v>
+      </c>
+      <c r="F11" s="28">
+        <v>3</v>
+      </c>
+      <c r="G11" s="28">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28">
+        <v>4</v>
+      </c>
+      <c r="I11" s="28">
+        <v>4</v>
+      </c>
+      <c r="J11" s="28">
+        <v>4</v>
+      </c>
+      <c r="K11" s="28">
+        <v>4</v>
+      </c>
+      <c r="L11" s="28">
+        <v>4</v>
+      </c>
+      <c r="M11" s="28">
+        <v>4</v>
+      </c>
+      <c r="N11" s="29">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -4294,48 +4295,48 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="26">
-        <v>4</v>
-      </c>
-      <c r="D12" s="26">
-        <v>4</v>
-      </c>
-      <c r="E12" s="26">
-        <v>4</v>
-      </c>
-      <c r="F12" s="26">
-        <v>4</v>
-      </c>
-      <c r="G12" s="26">
-        <v>4</v>
-      </c>
-      <c r="H12" s="26">
-        <v>4</v>
-      </c>
-      <c r="I12" s="26">
-        <v>4</v>
-      </c>
-      <c r="J12" s="26">
-        <v>4</v>
-      </c>
-      <c r="K12" s="26">
-        <v>4</v>
-      </c>
-      <c r="L12" s="26">
-        <v>4</v>
-      </c>
-      <c r="M12" s="26">
-        <v>4</v>
-      </c>
-      <c r="N12" s="27">
+      <c r="B12" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="28">
+        <v>4</v>
+      </c>
+      <c r="D12" s="28">
+        <v>4</v>
+      </c>
+      <c r="E12" s="28">
+        <v>4</v>
+      </c>
+      <c r="F12" s="28">
+        <v>4</v>
+      </c>
+      <c r="G12" s="28">
+        <v>3</v>
+      </c>
+      <c r="H12" s="28">
+        <v>4</v>
+      </c>
+      <c r="I12" s="28">
+        <v>3</v>
+      </c>
+      <c r="J12" s="28">
+        <v>4</v>
+      </c>
+      <c r="K12" s="28">
+        <v>4</v>
+      </c>
+      <c r="L12" s="28">
+        <v>4</v>
+      </c>
+      <c r="M12" s="28">
+        <v>3</v>
+      </c>
+      <c r="N12" s="29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -4345,46 +4346,46 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="26">
-        <v>3</v>
-      </c>
-      <c r="D13" s="26">
-        <v>3</v>
-      </c>
-      <c r="E13" s="26">
-        <v>4</v>
-      </c>
-      <c r="F13" s="26">
-        <v>4</v>
-      </c>
-      <c r="G13" s="26">
-        <v>3</v>
-      </c>
-      <c r="H13" s="26">
-        <v>4</v>
-      </c>
-      <c r="I13" s="26">
-        <v>3</v>
-      </c>
-      <c r="J13" s="26">
-        <v>4</v>
-      </c>
-      <c r="K13" s="26">
-        <v>4</v>
-      </c>
-      <c r="L13" s="26">
-        <v>3</v>
-      </c>
-      <c r="M13" s="26">
-        <v>4</v>
-      </c>
-      <c r="N13" s="27">
+      <c r="B13" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="28">
+        <v>3</v>
+      </c>
+      <c r="D13" s="28">
+        <v>3</v>
+      </c>
+      <c r="E13" s="28">
+        <v>4</v>
+      </c>
+      <c r="F13" s="28">
+        <v>4</v>
+      </c>
+      <c r="G13" s="28">
+        <v>3</v>
+      </c>
+      <c r="H13" s="28">
+        <v>4</v>
+      </c>
+      <c r="I13" s="28">
+        <v>3</v>
+      </c>
+      <c r="J13" s="28">
+        <v>4</v>
+      </c>
+      <c r="K13" s="28">
+        <v>4</v>
+      </c>
+      <c r="L13" s="28">
+        <v>3</v>
+      </c>
+      <c r="M13" s="28">
+        <v>4</v>
+      </c>
+      <c r="N13" s="29">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -4396,46 +4397,46 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="26">
-        <v>4</v>
-      </c>
-      <c r="D14" s="26">
-        <v>4</v>
-      </c>
-      <c r="E14" s="26">
-        <v>3</v>
-      </c>
-      <c r="F14" s="26">
-        <v>3</v>
-      </c>
-      <c r="G14" s="26">
-        <v>4</v>
-      </c>
-      <c r="H14" s="26">
-        <v>4</v>
-      </c>
-      <c r="I14" s="26">
-        <v>4</v>
-      </c>
-      <c r="J14" s="26">
-        <v>4</v>
-      </c>
-      <c r="K14" s="26">
-        <v>4</v>
-      </c>
-      <c r="L14" s="26">
-        <v>3</v>
-      </c>
-      <c r="M14" s="26">
-        <v>3</v>
-      </c>
-      <c r="N14" s="27">
+      <c r="B14" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="28">
+        <v>4</v>
+      </c>
+      <c r="D14" s="28">
+        <v>4</v>
+      </c>
+      <c r="E14" s="28">
+        <v>3</v>
+      </c>
+      <c r="F14" s="28">
+        <v>3</v>
+      </c>
+      <c r="G14" s="28">
+        <v>4</v>
+      </c>
+      <c r="H14" s="28">
+        <v>4</v>
+      </c>
+      <c r="I14" s="28">
+        <v>4</v>
+      </c>
+      <c r="J14" s="28">
+        <v>4</v>
+      </c>
+      <c r="K14" s="28">
+        <v>4</v>
+      </c>
+      <c r="L14" s="28">
+        <v>3</v>
+      </c>
+      <c r="M14" s="28">
+        <v>3</v>
+      </c>
+      <c r="N14" s="29">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -4447,48 +4448,48 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="26">
-        <v>4</v>
-      </c>
-      <c r="D15" s="26">
-        <v>4</v>
-      </c>
-      <c r="E15" s="26">
-        <v>4</v>
-      </c>
-      <c r="F15" s="26">
-        <v>4</v>
-      </c>
-      <c r="G15" s="26">
-        <v>4</v>
-      </c>
-      <c r="H15" s="26">
-        <v>4</v>
-      </c>
-      <c r="I15" s="26">
-        <v>4</v>
-      </c>
-      <c r="J15" s="26">
-        <v>4</v>
-      </c>
-      <c r="K15" s="26">
-        <v>4</v>
-      </c>
-      <c r="L15" s="26">
-        <v>4</v>
-      </c>
-      <c r="M15" s="26">
-        <v>4</v>
-      </c>
-      <c r="N15" s="27">
+      <c r="B15" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="28">
+        <v>4</v>
+      </c>
+      <c r="D15" s="28">
+        <v>4</v>
+      </c>
+      <c r="E15" s="28">
+        <v>3</v>
+      </c>
+      <c r="F15" s="28">
+        <v>4</v>
+      </c>
+      <c r="G15" s="28">
+        <v>4</v>
+      </c>
+      <c r="H15" s="28">
+        <v>4</v>
+      </c>
+      <c r="I15" s="28">
+        <v>3</v>
+      </c>
+      <c r="J15" s="28">
+        <v>4</v>
+      </c>
+      <c r="K15" s="28">
+        <v>4</v>
+      </c>
+      <c r="L15" s="28">
+        <v>4</v>
+      </c>
+      <c r="M15" s="28">
+        <v>3</v>
+      </c>
+      <c r="N15" s="29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4498,46 +4499,46 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="26">
-        <v>3</v>
-      </c>
-      <c r="D16" s="26">
-        <v>4</v>
-      </c>
-      <c r="E16" s="26">
-        <v>4</v>
-      </c>
-      <c r="F16" s="26">
-        <v>3</v>
-      </c>
-      <c r="G16" s="26">
-        <v>4</v>
-      </c>
-      <c r="H16" s="26">
-        <v>3</v>
-      </c>
-      <c r="I16" s="26">
-        <v>3</v>
-      </c>
-      <c r="J16" s="26">
-        <v>4</v>
-      </c>
-      <c r="K16" s="26">
-        <v>3</v>
-      </c>
-      <c r="L16" s="26">
-        <v>3</v>
-      </c>
-      <c r="M16" s="26">
-        <v>4</v>
-      </c>
-      <c r="N16" s="27">
+      <c r="C16" s="28">
+        <v>3</v>
+      </c>
+      <c r="D16" s="28">
+        <v>4</v>
+      </c>
+      <c r="E16" s="28">
+        <v>4</v>
+      </c>
+      <c r="F16" s="28">
+        <v>3</v>
+      </c>
+      <c r="G16" s="28">
+        <v>4</v>
+      </c>
+      <c r="H16" s="28">
+        <v>3</v>
+      </c>
+      <c r="I16" s="28">
+        <v>3</v>
+      </c>
+      <c r="J16" s="28">
+        <v>4</v>
+      </c>
+      <c r="K16" s="28">
+        <v>3</v>
+      </c>
+      <c r="L16" s="28">
+        <v>3</v>
+      </c>
+      <c r="M16" s="28">
+        <v>4</v>
+      </c>
+      <c r="N16" s="29">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -4549,48 +4550,48 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="26">
-        <v>4</v>
-      </c>
-      <c r="D17" s="26">
-        <v>4</v>
-      </c>
-      <c r="E17" s="26">
-        <v>4</v>
-      </c>
-      <c r="F17" s="26">
-        <v>4</v>
-      </c>
-      <c r="G17" s="26">
-        <v>4</v>
-      </c>
-      <c r="H17" s="26">
-        <v>4</v>
-      </c>
-      <c r="I17" s="26">
-        <v>4</v>
-      </c>
-      <c r="J17" s="26">
-        <v>4</v>
-      </c>
-      <c r="K17" s="26">
-        <v>4</v>
-      </c>
-      <c r="L17" s="26">
-        <v>4</v>
-      </c>
-      <c r="M17" s="26">
-        <v>4</v>
-      </c>
-      <c r="N17" s="27">
+      <c r="C17" s="28">
+        <v>4</v>
+      </c>
+      <c r="D17" s="28">
+        <v>4</v>
+      </c>
+      <c r="E17" s="28">
+        <v>3</v>
+      </c>
+      <c r="F17" s="28">
+        <v>4</v>
+      </c>
+      <c r="G17" s="28">
+        <v>4</v>
+      </c>
+      <c r="H17" s="28">
+        <v>4</v>
+      </c>
+      <c r="I17" s="28">
+        <v>4</v>
+      </c>
+      <c r="J17" s="28">
+        <v>4</v>
+      </c>
+      <c r="K17" s="28">
+        <v>4</v>
+      </c>
+      <c r="L17" s="28">
+        <v>4</v>
+      </c>
+      <c r="M17" s="28">
+        <v>3</v>
+      </c>
+      <c r="N17" s="29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4600,48 +4601,48 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="26">
-        <v>4</v>
-      </c>
-      <c r="D18" s="26">
-        <v>4</v>
-      </c>
-      <c r="E18" s="26">
-        <v>4</v>
-      </c>
-      <c r="F18" s="26">
-        <v>4</v>
-      </c>
-      <c r="G18" s="26">
-        <v>4</v>
-      </c>
-      <c r="H18" s="26">
-        <v>4</v>
-      </c>
-      <c r="I18" s="26">
-        <v>4</v>
-      </c>
-      <c r="J18" s="26">
-        <v>4</v>
-      </c>
-      <c r="K18" s="26">
-        <v>4</v>
-      </c>
-      <c r="L18" s="26">
-        <v>4</v>
-      </c>
-      <c r="M18" s="26">
-        <v>4</v>
-      </c>
-      <c r="N18" s="27">
+      <c r="C18" s="28">
+        <v>4</v>
+      </c>
+      <c r="D18" s="28">
+        <v>4</v>
+      </c>
+      <c r="E18" s="28">
+        <v>4</v>
+      </c>
+      <c r="F18" s="28">
+        <v>4</v>
+      </c>
+      <c r="G18" s="28">
+        <v>3</v>
+      </c>
+      <c r="H18" s="28">
+        <v>4</v>
+      </c>
+      <c r="I18" s="28">
+        <v>4</v>
+      </c>
+      <c r="J18" s="28">
+        <v>4</v>
+      </c>
+      <c r="K18" s="28">
+        <v>3</v>
+      </c>
+      <c r="L18" s="28">
+        <v>4</v>
+      </c>
+      <c r="M18" s="28">
+        <v>4</v>
+      </c>
+      <c r="N18" s="29">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4651,46 +4652,46 @@
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="24">
-        <v>4</v>
-      </c>
-      <c r="D19" s="24">
-        <v>4</v>
-      </c>
-      <c r="E19" s="24">
-        <v>4</v>
-      </c>
-      <c r="F19" s="24">
-        <v>4</v>
-      </c>
-      <c r="G19" s="24">
-        <v>4</v>
-      </c>
-      <c r="H19" s="24">
-        <v>3</v>
-      </c>
-      <c r="I19" s="24">
-        <v>3</v>
-      </c>
-      <c r="J19" s="24">
-        <v>4</v>
-      </c>
-      <c r="K19" s="24">
-        <v>4</v>
-      </c>
-      <c r="L19" s="24">
-        <v>3</v>
-      </c>
-      <c r="M19" s="24">
-        <v>4</v>
-      </c>
-      <c r="N19" s="27">
+      <c r="C19" s="26">
+        <v>4</v>
+      </c>
+      <c r="D19" s="26">
+        <v>4</v>
+      </c>
+      <c r="E19" s="26">
+        <v>4</v>
+      </c>
+      <c r="F19" s="26">
+        <v>4</v>
+      </c>
+      <c r="G19" s="26">
+        <v>4</v>
+      </c>
+      <c r="H19" s="26">
+        <v>3</v>
+      </c>
+      <c r="I19" s="26">
+        <v>3</v>
+      </c>
+      <c r="J19" s="26">
+        <v>4</v>
+      </c>
+      <c r="K19" s="26">
+        <v>4</v>
+      </c>
+      <c r="L19" s="26">
+        <v>3</v>
+      </c>
+      <c r="M19" s="26">
+        <v>4</v>
+      </c>
+      <c r="N19" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4702,46 +4703,46 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="24">
-        <v>4</v>
-      </c>
-      <c r="D20" s="24">
-        <v>4</v>
-      </c>
-      <c r="E20" s="24">
-        <v>4</v>
-      </c>
-      <c r="F20" s="24">
-        <v>4</v>
-      </c>
-      <c r="G20" s="24">
-        <v>4</v>
-      </c>
-      <c r="H20" s="24">
-        <v>4</v>
-      </c>
-      <c r="I20" s="24">
-        <v>4</v>
-      </c>
-      <c r="J20" s="24">
-        <v>3</v>
-      </c>
-      <c r="K20" s="24">
-        <v>4</v>
-      </c>
-      <c r="L20" s="24">
-        <v>3</v>
-      </c>
-      <c r="M20" s="24">
-        <v>4</v>
-      </c>
-      <c r="N20" s="27">
+      <c r="C20" s="26">
+        <v>4</v>
+      </c>
+      <c r="D20" s="26">
+        <v>4</v>
+      </c>
+      <c r="E20" s="26">
+        <v>4</v>
+      </c>
+      <c r="F20" s="26">
+        <v>4</v>
+      </c>
+      <c r="G20" s="26">
+        <v>4</v>
+      </c>
+      <c r="H20" s="26">
+        <v>4</v>
+      </c>
+      <c r="I20" s="26">
+        <v>4</v>
+      </c>
+      <c r="J20" s="26">
+        <v>3</v>
+      </c>
+      <c r="K20" s="26">
+        <v>4</v>
+      </c>
+      <c r="L20" s="26">
+        <v>3</v>
+      </c>
+      <c r="M20" s="26">
+        <v>4</v>
+      </c>
+      <c r="N20" s="29">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -4753,50 +4754,50 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="24">
-        <v>4</v>
-      </c>
-      <c r="D21" s="24">
-        <v>4</v>
-      </c>
-      <c r="E21" s="24">
-        <v>4</v>
-      </c>
-      <c r="F21" s="24">
-        <v>4</v>
-      </c>
-      <c r="G21" s="24">
-        <v>3</v>
-      </c>
-      <c r="H21" s="24">
-        <v>4</v>
-      </c>
-      <c r="I21" s="24">
-        <v>4</v>
-      </c>
-      <c r="J21" s="24">
-        <v>3</v>
-      </c>
-      <c r="K21" s="24">
-        <v>4</v>
-      </c>
-      <c r="L21" s="24">
-        <v>4</v>
-      </c>
-      <c r="M21" s="24">
-        <v>3</v>
-      </c>
-      <c r="N21" s="27">
+      <c r="C21" s="26">
+        <v>4</v>
+      </c>
+      <c r="D21" s="26">
+        <v>4</v>
+      </c>
+      <c r="E21" s="26">
+        <v>4</v>
+      </c>
+      <c r="F21" s="26">
+        <v>4</v>
+      </c>
+      <c r="G21" s="26">
+        <v>3</v>
+      </c>
+      <c r="H21" s="26">
+        <v>4</v>
+      </c>
+      <c r="I21" s="26">
+        <v>4</v>
+      </c>
+      <c r="J21" s="26">
+        <v>3</v>
+      </c>
+      <c r="K21" s="26">
+        <v>4</v>
+      </c>
+      <c r="L21" s="26">
+        <v>4</v>
+      </c>
+      <c r="M21" s="26">
+        <v>3</v>
+      </c>
+      <c r="N21" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="O21" s="5"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -4804,50 +4805,50 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="24">
-        <v>4</v>
-      </c>
-      <c r="D22" s="24">
-        <v>4</v>
-      </c>
-      <c r="E22" s="24">
-        <v>4</v>
-      </c>
-      <c r="F22" s="24">
-        <v>3</v>
-      </c>
-      <c r="G22" s="24">
-        <v>4</v>
-      </c>
-      <c r="H22" s="24">
-        <v>3</v>
-      </c>
-      <c r="I22" s="24">
-        <v>4</v>
-      </c>
-      <c r="J22" s="24">
-        <v>3</v>
-      </c>
-      <c r="K22" s="24">
-        <v>4</v>
-      </c>
-      <c r="L22" s="24">
-        <v>4</v>
-      </c>
-      <c r="M22" s="24">
-        <v>4</v>
-      </c>
-      <c r="N22" s="27">
+      <c r="C22" s="26">
+        <v>4</v>
+      </c>
+      <c r="D22" s="26">
+        <v>4</v>
+      </c>
+      <c r="E22" s="26">
+        <v>4</v>
+      </c>
+      <c r="F22" s="26">
+        <v>3</v>
+      </c>
+      <c r="G22" s="26">
+        <v>4</v>
+      </c>
+      <c r="H22" s="26">
+        <v>3</v>
+      </c>
+      <c r="I22" s="26">
+        <v>4</v>
+      </c>
+      <c r="J22" s="26">
+        <v>3</v>
+      </c>
+      <c r="K22" s="26">
+        <v>4</v>
+      </c>
+      <c r="L22" s="26">
+        <v>4</v>
+      </c>
+      <c r="M22" s="26">
+        <v>4</v>
+      </c>
+      <c r="N22" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="2"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -4855,50 +4856,50 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="24">
-        <v>4</v>
-      </c>
-      <c r="D23" s="24">
-        <v>4</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="F23" s="24">
-        <v>3</v>
-      </c>
-      <c r="G23" s="24">
-        <v>4</v>
-      </c>
-      <c r="H23" s="24">
-        <v>3</v>
-      </c>
-      <c r="I23" s="24">
-        <v>4</v>
-      </c>
-      <c r="J23" s="24">
-        <v>3</v>
-      </c>
-      <c r="K23" s="24">
-        <v>4</v>
-      </c>
-      <c r="L23" s="24">
-        <v>4</v>
-      </c>
-      <c r="M23" s="24">
-        <v>4</v>
-      </c>
-      <c r="N23" s="27">
+      <c r="C23" s="26">
+        <v>4</v>
+      </c>
+      <c r="D23" s="26">
+        <v>4</v>
+      </c>
+      <c r="E23" s="26">
+        <v>4</v>
+      </c>
+      <c r="F23" s="26">
+        <v>3</v>
+      </c>
+      <c r="G23" s="26">
+        <v>4</v>
+      </c>
+      <c r="H23" s="26">
+        <v>3</v>
+      </c>
+      <c r="I23" s="26">
+        <v>4</v>
+      </c>
+      <c r="J23" s="26">
+        <v>3</v>
+      </c>
+      <c r="K23" s="26">
+        <v>4</v>
+      </c>
+      <c r="L23" s="26">
+        <v>4</v>
+      </c>
+      <c r="M23" s="26">
+        <v>4</v>
+      </c>
+      <c r="N23" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -4906,50 +4907,50 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="26">
-        <v>4</v>
-      </c>
-      <c r="D24" s="26">
-        <v>4</v>
-      </c>
-      <c r="E24" s="26">
-        <v>3</v>
-      </c>
-      <c r="F24" s="26">
-        <v>3</v>
-      </c>
-      <c r="G24" s="26">
-        <v>4</v>
-      </c>
-      <c r="H24" s="26">
-        <v>3</v>
-      </c>
-      <c r="I24" s="26">
-        <v>3</v>
-      </c>
-      <c r="J24" s="26">
-        <v>4</v>
-      </c>
-      <c r="K24" s="26">
-        <v>4</v>
-      </c>
-      <c r="L24" s="26">
-        <v>3</v>
-      </c>
-      <c r="M24" s="26">
-        <v>4</v>
-      </c>
-      <c r="N24" s="27">
+      <c r="B24" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="28">
+        <v>4</v>
+      </c>
+      <c r="D24" s="28">
+        <v>4</v>
+      </c>
+      <c r="E24" s="28">
+        <v>3</v>
+      </c>
+      <c r="F24" s="28">
+        <v>3</v>
+      </c>
+      <c r="G24" s="28">
+        <v>4</v>
+      </c>
+      <c r="H24" s="28">
+        <v>3</v>
+      </c>
+      <c r="I24" s="28">
+        <v>3</v>
+      </c>
+      <c r="J24" s="28">
+        <v>4</v>
+      </c>
+      <c r="K24" s="28">
+        <v>4</v>
+      </c>
+      <c r="L24" s="28">
+        <v>3</v>
+      </c>
+      <c r="M24" s="28">
+        <v>4</v>
+      </c>
+      <c r="N24" s="29">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="O24" s="5"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -4957,50 +4958,50 @@
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="26">
-        <v>4</v>
-      </c>
-      <c r="D25" s="26">
-        <v>4</v>
-      </c>
-      <c r="E25" s="26">
-        <v>4</v>
-      </c>
-      <c r="F25" s="26">
-        <v>3</v>
-      </c>
-      <c r="G25" s="26">
-        <v>3</v>
-      </c>
-      <c r="H25" s="26">
-        <v>3</v>
-      </c>
-      <c r="I25" s="26">
-        <v>4</v>
-      </c>
-      <c r="J25" s="26">
-        <v>3</v>
-      </c>
-      <c r="K25" s="26">
-        <v>4</v>
-      </c>
-      <c r="L25" s="26">
-        <v>3</v>
-      </c>
-      <c r="M25" s="26">
-        <v>4</v>
-      </c>
-      <c r="N25" s="27">
+      <c r="B25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="28">
+        <v>4</v>
+      </c>
+      <c r="D25" s="28">
+        <v>4</v>
+      </c>
+      <c r="E25" s="28">
+        <v>4</v>
+      </c>
+      <c r="F25" s="28">
+        <v>3</v>
+      </c>
+      <c r="G25" s="28">
+        <v>3</v>
+      </c>
+      <c r="H25" s="28">
+        <v>3</v>
+      </c>
+      <c r="I25" s="28">
+        <v>4</v>
+      </c>
+      <c r="J25" s="28">
+        <v>3</v>
+      </c>
+      <c r="K25" s="28">
+        <v>4</v>
+      </c>
+      <c r="L25" s="28">
+        <v>3</v>
+      </c>
+      <c r="M25" s="28">
+        <v>4</v>
+      </c>
+      <c r="N25" s="29">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -5008,50 +5009,50 @@
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="24">
-        <v>4</v>
-      </c>
-      <c r="D26" s="24">
-        <v>4</v>
-      </c>
-      <c r="E26" s="24">
-        <v>3</v>
-      </c>
-      <c r="F26" s="24">
-        <v>4</v>
-      </c>
-      <c r="G26" s="24">
-        <v>4</v>
-      </c>
-      <c r="H26" s="24">
-        <v>3</v>
-      </c>
-      <c r="I26" s="24">
-        <v>4</v>
-      </c>
-      <c r="J26" s="24">
-        <v>4</v>
-      </c>
-      <c r="K26" s="24">
-        <v>3</v>
-      </c>
-      <c r="L26" s="24">
-        <v>4</v>
-      </c>
-      <c r="M26" s="24">
-        <v>4</v>
-      </c>
-      <c r="N26" s="27">
+      <c r="C26" s="26">
+        <v>4</v>
+      </c>
+      <c r="D26" s="26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="26">
+        <v>4</v>
+      </c>
+      <c r="G26" s="26">
+        <v>4</v>
+      </c>
+      <c r="H26" s="26">
+        <v>3</v>
+      </c>
+      <c r="I26" s="26">
+        <v>4</v>
+      </c>
+      <c r="J26" s="26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="26">
+        <v>3</v>
+      </c>
+      <c r="L26" s="26">
+        <v>4</v>
+      </c>
+      <c r="M26" s="26">
+        <v>4</v>
+      </c>
+      <c r="N26" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="O26" s="5"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -5059,50 +5060,50 @@
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="24">
-        <v>4</v>
-      </c>
-      <c r="D27" s="24">
-        <v>4</v>
-      </c>
-      <c r="E27" s="24">
-        <v>4</v>
-      </c>
-      <c r="F27" s="24">
-        <v>3</v>
-      </c>
-      <c r="G27" s="24">
-        <v>4</v>
-      </c>
-      <c r="H27" s="24">
-        <v>4</v>
-      </c>
-      <c r="I27" s="24">
-        <v>3</v>
-      </c>
-      <c r="J27" s="24">
-        <v>4</v>
-      </c>
-      <c r="K27" s="24">
-        <v>4</v>
-      </c>
-      <c r="L27" s="24">
-        <v>3</v>
-      </c>
-      <c r="M27" s="24">
-        <v>4</v>
-      </c>
-      <c r="N27" s="27">
+      <c r="C27" s="26">
+        <v>4</v>
+      </c>
+      <c r="D27" s="26">
+        <v>4</v>
+      </c>
+      <c r="E27" s="26">
+        <v>4</v>
+      </c>
+      <c r="F27" s="26">
+        <v>3</v>
+      </c>
+      <c r="G27" s="26">
+        <v>4</v>
+      </c>
+      <c r="H27" s="26">
+        <v>4</v>
+      </c>
+      <c r="I27" s="26">
+        <v>3</v>
+      </c>
+      <c r="J27" s="26">
+        <v>4</v>
+      </c>
+      <c r="K27" s="26">
+        <v>4</v>
+      </c>
+      <c r="L27" s="26">
+        <v>3</v>
+      </c>
+      <c r="M27" s="26">
+        <v>4</v>
+      </c>
+      <c r="N27" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="O27" s="5"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -5110,56 +5111,79 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="24">
-        <v>4</v>
-      </c>
-      <c r="D28" s="24">
-        <v>3</v>
-      </c>
-      <c r="E28" s="24">
-        <v>4</v>
-      </c>
-      <c r="F28" s="24">
-        <v>3</v>
-      </c>
-      <c r="G28" s="24">
-        <v>4</v>
-      </c>
-      <c r="H28" s="24">
-        <v>4</v>
-      </c>
-      <c r="I28" s="24">
-        <v>4</v>
-      </c>
-      <c r="J28" s="24">
-        <v>4</v>
-      </c>
-      <c r="K28" s="24">
-        <v>3</v>
-      </c>
-      <c r="L28" s="24">
-        <v>4</v>
-      </c>
-      <c r="M28" s="24">
-        <v>3</v>
-      </c>
-      <c r="N28" s="27">
+      <c r="C28" s="26">
+        <v>4</v>
+      </c>
+      <c r="D28" s="26">
+        <v>3</v>
+      </c>
+      <c r="E28" s="26">
+        <v>4</v>
+      </c>
+      <c r="F28" s="26">
+        <v>3</v>
+      </c>
+      <c r="G28" s="26">
+        <v>4</v>
+      </c>
+      <c r="H28" s="26">
+        <v>4</v>
+      </c>
+      <c r="I28" s="26">
+        <v>4</v>
+      </c>
+      <c r="J28" s="26">
+        <v>4</v>
+      </c>
+      <c r="K28" s="26">
+        <v>3</v>
+      </c>
+      <c r="L28" s="26">
+        <v>4</v>
+      </c>
+      <c r="M28" s="26">
+        <v>3</v>
+      </c>
+      <c r="N28" s="29">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="2"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29">
+        <f>SUM(N2:N28)</f>
+        <v>1102</v>
+      </c>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O30" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
